--- a/material/generalStruct.xlsx
+++ b/material/generalStruct.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\EMI\2-ICI\PROGADV\promedios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\EMI\2-ICI\PROGADV\promedios\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FB279E-78B9-49CC-8F45-4D831EFBABCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F630289-CD8D-41ED-80BB-A6DB74B84B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2ICIA" sheetId="1" r:id="rId1"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId1"/>
     <sheet name="2ICIB" sheetId="2" r:id="rId2"/>
     <sheet name="2IC" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -79,7 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LOEZA:
 "promedio alumno", string constante</t>
@@ -89,7 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 posición "pormedio alumno", número de matrias + 1</t>
@@ -152,7 +152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LOEZA:
 "promedio materia", string constante</t>
@@ -162,7 +162,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 posición "promedio materia", número de alumnos + 1</t>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>diaz</t>
   </si>
@@ -243,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,23 +255,10 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -580,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +640,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">AVERAGE(B3:E3)</f>
+        <f t="shared" ref="F3:F5" si="0">AVERAGE(B3:E3)</f>
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -708,7 +695,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:F6" si="1">AVERAGE(C2:C5)</f>
+        <f t="shared" ref="C6:E6" si="1">AVERAGE(C2:C5)</f>
         <v>9.6</v>
       </c>
       <c r="D6">
@@ -717,6 +704,256 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
+        <v>9.2249999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9.5</v>
+      </c>
+      <c r="C12">
+        <v>9.4</v>
+      </c>
+      <c r="D12">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E12">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(B12:E12)</f>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>8.5</v>
+      </c>
+      <c r="C13">
+        <v>9.4</v>
+      </c>
+      <c r="D13">
+        <v>9.6</v>
+      </c>
+      <c r="E13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F15" si="2">AVERAGE(B13:E13)</f>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C14">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>9.5</v>
+      </c>
+      <c r="C15">
+        <v>9.9</v>
+      </c>
+      <c r="D15">
+        <v>9.4</v>
+      </c>
+      <c r="E15">
+        <v>9.1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>9.4749999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(B12:B15)</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:E16" si="3">AVERAGE(C12:C15)</f>
+        <v>9.6</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>9.3249999999999993</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>9.2249999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>9.5</v>
+      </c>
+      <c r="C22">
+        <v>9.4</v>
+      </c>
+      <c r="D22">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E22">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(B22:E22)</f>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>8.5</v>
+      </c>
+      <c r="C23">
+        <v>9.4</v>
+      </c>
+      <c r="D23">
+        <v>9.6</v>
+      </c>
+      <c r="E23">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F25" si="4">AVERAGE(B23:E23)</f>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C24">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>9.5</v>
+      </c>
+      <c r="C25">
+        <v>9.9</v>
+      </c>
+      <c r="D25">
+        <v>9.4</v>
+      </c>
+      <c r="E25">
+        <v>9.1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>9.4749999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B22:B25)</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:E26" si="5">AVERAGE(C22:C25)</f>
+        <v>9.6</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>9.3249999999999993</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
         <v>9.2249999999999996</v>
       </c>
     </row>
@@ -732,7 +969,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +1116,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/material/generalStruct.xlsx
+++ b/material/generalStruct.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\EMI\2-ICI\PROGADV\promedios\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F630289-CD8D-41ED-80BB-A6DB74B84B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2B23F9-0026-4599-8B94-57CA27326E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" r:id="rId1"/>
-    <sheet name="2ICIB" sheetId="2" r:id="rId2"/>
-    <sheet name="2IC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -174,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>diaz</t>
   </si>
@@ -237,6 +235,48 @@
   </si>
   <si>
     <t>promedio alumno</t>
+  </si>
+  <si>
+    <t>Nombre Grupo</t>
+  </si>
+  <si>
+    <t>promedio grupo</t>
+  </si>
+  <si>
+    <t>Materias</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>mn</t>
+  </si>
+  <si>
+    <t>promedio</t>
+  </si>
+  <si>
+    <t>Alumnos</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>Salida datos en archivo</t>
   </si>
 </sst>
 </file>
@@ -273,7 +313,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -281,12 +321,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +670,7 @@
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -601,8 +689,12 @@
       <c r="F1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -622,8 +714,12 @@
         <f>AVERAGE(B2:E2)</f>
         <v>9.375</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -643,8 +739,15 @@
         <f t="shared" ref="F3:F5" si="0">AVERAGE(B3:E3)</f>
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -664,8 +767,14 @@
         <f t="shared" si="0"/>
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -685,8 +794,14 @@
         <f t="shared" si="0"/>
         <v>9.4749999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -706,8 +821,44 @@
         <f t="shared" si="1"/>
         <v>9.2249999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -726,8 +877,14 @@
       <c r="F11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -747,8 +904,14 @@
         <f>AVERAGE(B12:E12)</f>
         <v>9.375</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -769,7 +932,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -790,7 +953,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -811,7 +974,7 @@
         <v>9.4749999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -958,302 +1121,14 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K8:L8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8833480D-32AD-4286-A5B5-14BA89B18212}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>9.5</v>
-      </c>
-      <c r="C2">
-        <v>9.4</v>
-      </c>
-      <c r="D2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F2">
-        <f>AVERAGE(B2:E2)</f>
-        <v>9.375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>8.5</v>
-      </c>
-      <c r="C3">
-        <v>9.4</v>
-      </c>
-      <c r="D3">
-        <v>9.6</v>
-      </c>
-      <c r="E3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F5" si="0">AVERAGE(B3:E3)</f>
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>9.5</v>
-      </c>
-      <c r="C5">
-        <v>9.9</v>
-      </c>
-      <c r="D5">
-        <v>9.4</v>
-      </c>
-      <c r="E5">
-        <v>9.1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>9.4749999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <f>AVERAGE(B2:B5)</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:E6" si="1">AVERAGE(C2:C5)</f>
-        <v>9.6</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>9.3249999999999993</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>9.2249999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C6AA14-D2DF-4DAC-86DC-48409E96B68D}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>9.5</v>
-      </c>
-      <c r="C2">
-        <v>9.4</v>
-      </c>
-      <c r="D2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F2">
-        <f>AVERAGE(B2:E2)</f>
-        <v>9.375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>8.5</v>
-      </c>
-      <c r="C3">
-        <v>9.4</v>
-      </c>
-      <c r="D3">
-        <v>9.6</v>
-      </c>
-      <c r="E3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F5" si="0">AVERAGE(B3:E3)</f>
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>9.5</v>
-      </c>
-      <c r="C5">
-        <v>9.9</v>
-      </c>
-      <c r="D5">
-        <v>9.4</v>
-      </c>
-      <c r="E5">
-        <v>9.1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>9.4749999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <f>AVERAGE(B2:B5)</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:E6" si="1">AVERAGE(C2:C5)</f>
-        <v>9.6</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>9.3249999999999993</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>9.2249999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>